--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/54_Kütahya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/54_Kütahya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219417C8-3D37-491D-8070-41F99B075341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F362B78F-1A3E-4F10-88A5-D7BB1E41E6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="680" xr2:uid="{3CE6E957-7E76-49E8-BCDD-21506D73C4AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{C4A8E938-7BF0-4F9C-9ADF-9F1AD00EAEC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3E72B7B-D032-46ED-B9F8-8D1086524F73}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DBC493B0-9F54-4C03-9FE6-DF194B409DAB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9413AB13-7710-4B03-943D-59D911E832FB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C5B5F384-4FCF-4B95-866D-55DEEF4B69B5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{02A752EC-829A-42A1-A6E8-77CB61B8E12E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DFE76E64-96D6-4AD3-8D67-4ECCBE44CE97}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{451F97BD-A950-4D4C-8E12-88B8AEF61987}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6211FC6E-271D-4641-8737-9C01260CCA0D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D2157FC2-436F-4CEB-8762-32A5065623D1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8F8C1FE1-347B-468F-947E-878602467F43}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A9680CDE-5CBF-4018-A65F-C432187823BB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{47C94ED9-73D0-4DF4-A00B-34623D4637E1}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D8BD5EBD-75DA-4833-ACC9-D0B60D933EAD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{42763C46-712B-49E8-A80D-4597492E7845}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9FC0E1-BC03-4F8C-8CDF-6577818B6F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F3EED-A526-446C-B23B-1B536F2DBAC5}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2634,17 +2634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F80F3F5B-906B-404A-BCE2-A9E567E8428A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC090249-B0F9-413C-B5AF-D83B619A7889}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DC6ABD3-29B1-408C-8AA2-028D300E2EB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2595C0-DC59-4FF5-866B-DDF6B60FA1D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DE13503-CABD-4C48-822C-D73261C78451}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88EBB4D5-7B61-42C5-8D5D-DF92B9FCA523}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D318D569-23B1-4587-B174-CB7A0DC8F35C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39C1FC6E-4140-4EA1-B6FA-AB81EC0C9E7C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F824E707-05F0-48DC-BC15-86AA28B50F24}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{35E59626-D2E1-49E5-8329-FC4C446B7FB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E5A03BA-AE3B-4E0E-91D1-BF3995C54DC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6116B22-F875-45AE-A897-A5A2BAF62299}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFB7918F-7F41-4ACC-8227-D0186F24C82F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7A4BF14-203E-4053-885D-22EA20A67CE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C14D6041-BCF7-4CEE-AC5C-B751F65B9105}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{079C3FE4-34D5-4A85-92E2-6913170F5B11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C961BC5A-E8CC-4DED-96B4-A34CB8E74533}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8366AADB-9343-419B-85BC-DB738D3FDB51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C470D64-E357-4A08-BBFD-469EEB1CA913}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B2E9653-0F39-4A67-B825-418FE3F3E882}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87BE9A34-1D24-4A88-9D31-11B742F94E59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BBB748C-51A8-4646-B8E7-017707866604}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB7CB1-D459-4431-896E-B86689AD97DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D387D319-AE3E-4B44-8656-E7461A5539FF}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3930,17 +3930,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB93D9CF-8BAA-4E24-A243-C4EFED502979}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F350F4B-4483-4FDC-A179-D3DFB8564758}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04655730-01EE-4C5B-93F8-A2188D67665D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62AA1A1A-9E29-40FC-88DD-42CDE7266C16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2543D55E-4EBA-459A-B0C3-FAE392FABEC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{053963E1-97D1-47A2-A199-208258F3BA93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5533C923-72CB-4BFE-870C-8E862E5C14AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DFF8FC6-C114-4EC8-BA29-95C61B7173F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{81DAAF72-AAC7-41DB-BD97-4A022B39C34B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70377B91-FA64-416F-83FF-240BBAF3DC4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D4ED8C3-FEC4-457C-AAC8-63D7624BFFAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26A701B6-21F3-4925-997C-4208E2E04BB4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCF2C15B-1F64-489D-91E1-CA2559324072}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4685362E-8088-4560-A1CF-B32BF78E211D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{767CBD2A-4E51-4981-82D8-E136D91BFC34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2B04524-5F86-4C69-AAC7-9A459B188B1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{147487C3-462B-42F6-B185-AEDDC83FC5EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C7E8D3B-7803-4F9A-B9C4-8AD6A25E8F4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE9D2A17-A149-4D1B-8694-8D6768DB0CFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{497345A0-0F64-4BA9-AD95-CD04EECCA959}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DAF4653D-34ED-4790-BF78-FD27DAA0AD7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A98912D7-3755-46C4-AC66-30365CC5EAC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3953,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EE84D4-A66E-4789-B80E-6ECEE1D3A06C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06F2AE0-F160-4692-AE57-3077BB2D98DD}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5220,17 +5220,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91A9E8E0-7F14-49CD-9193-A67F8087E141}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6026B51B-5F8C-4A83-8C41-91C93D437FC0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27A91161-2798-4312-9054-374733154133}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38F3C826-7AC8-4F3F-A167-B08FB212B728}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F5662BB-A637-41F4-886F-0D469B3FA9D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96792DBC-0CB5-4F0C-AEF3-6213A285DDB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{502C52EA-0D89-4261-9EBD-35D9A81AFB48}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71CD73A4-6015-4420-B3CF-7B2F1D0B7FDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{54C9E06C-94E1-4BED-8CE9-DADB0CB76660}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BCF19CE0-05EE-4827-8584-BE1E0555CBD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC3CB389-201C-49D0-9C82-8103778037C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0153675-8DE2-44A3-A92F-286A9220169F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17F0191F-252C-4406-8549-252A21A0CC77}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3232F9B9-F19E-46EC-9AB3-A10F3229CAD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{811B66A9-3766-4415-96C6-5A006152C488}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B96416E4-520D-4B7B-84AF-FCCC9DD7CB1D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF72D515-AD24-4430-906F-B705CF584F8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60B999B1-0BD9-4476-AD61-C9EEF389B908}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED120230-AB3D-4060-A293-AA7EE1C84157}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9361DF02-D9E7-4E45-8A63-80C6AE477D8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2BFC388-8ADE-41BF-A380-DA562EC8032D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5E137A9-4E32-4194-8A77-4DA370D416B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5243,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F780E87-A096-42C8-95C0-2672FAFCFA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEEF87-3C74-4D38-9A60-FDE6864AF66B}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6510,17 +6510,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35234823-F7E9-4169-A494-0BE761A93523}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{795082F6-0EE9-4405-B42A-26C74C678B76}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF5E3ABC-BD2A-4B29-9660-795B789F28EE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3AC5B2B3-E416-4D2A-BE99-063C64376099}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F267D50F-426F-431D-834B-EB4872F67D7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D92543D-C52F-4E08-B45D-B0667621CBDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4497591-0B04-4066-B594-F3E597900FCB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64252CD2-F426-41D2-AE80-86ECC7C550AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E1974CB-940D-4421-B0AB-746796EA612C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ED0BF695-3D2A-451F-B5EC-244FBB90C1F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D64D9C61-6988-4FA4-A300-E3FE1777D90F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66D17AEB-1DAB-4E15-8E17-87EFE21425CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41EDD52C-05B3-493E-89F7-EB8C8FC3A4AB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F36E5119-E621-4AFF-AC1E-7F84E27E46BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86710C20-D218-45F1-A93F-FB639E24FB06}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59A4D65A-1E4B-4DE3-B72A-D5FD8E886096}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94CA4198-E17D-43CD-A560-281F0960150E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB87168B-5A7D-422A-8820-A3BF2119D937}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AC69748-1680-4FDE-B623-A0716889019D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{47AD6E58-A51B-473D-B795-4855E2BAF5EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{221A3756-0842-46D9-9AF1-3B59C2AB031C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{853AD7C2-E044-4CBB-AFC0-749E3C4F8838}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB542C0-F4E8-4C69-9892-DF1DF6BABD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3944E-F9F7-47C4-99D6-FCAC4D2F83CC}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7816,17 +7816,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB2F2247-4C0E-4663-946C-A0BEE8C424FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E278A283-6101-4EAD-B6B2-103A9A91DD1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21F150D4-AF9C-44BD-8D04-1700CCC73BDC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E16231AF-3CA2-45A3-8ADB-5DA5175FD3B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{420A181D-2272-477C-B23B-1D83A1AD05B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8078443E-DD38-44BE-B830-58C5B2AEC1A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C2ECD3A-DF5F-4EFD-B8CA-E1AFDD74B9DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CD565B1-74FC-4EFA-8A7E-92CECDB95D8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{402CA97A-AEB6-4FCE-B646-0C9A00FEA60B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83B46D0F-EF55-41A0-821D-AFD8CF0B0087}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F57ABB3F-EEF2-4413-A1BA-CAE2D9920FB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{133F5E3A-C2EB-4CEF-9C38-16CE5F8D62F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79A7ECA2-0F29-4653-A7BF-118C2C2A266B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C5C4DD8-D77C-4E75-969C-78F72B2520C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C65AB420-646D-4A94-8583-23D541B651CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D5FBE95-C77D-4F28-8CB9-A390BE2A22DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0563E99-233D-4E32-8B09-1BF78BA3AC5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A12D803-F895-422B-8F64-BEFEF67315A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC9B2BFC-EFC5-44A3-875B-41561729674C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{615913E2-EFBC-4C49-8C5D-B6ACA6D1E7A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{614E6FB2-7134-4AE1-9204-A6E4D28E8B1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6C5ADAB-137D-401C-9E19-4ED9DF4888BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7839,7 +7839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6412C2B8-295A-4BE9-9DC9-C4D78A74564B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C5BD98-019B-44DA-ACA4-426AC710FCF2}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9122,17 +9122,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B2D456D-E38D-48D5-8CF8-986A2799478B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{738536F9-2D76-416B-8E6F-D9916A2F7275}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{205158E7-9F3E-42DC-A76E-4A5995B234D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF102EE9-3E39-4AB4-9D34-D3B1E000D0FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D36C1C74-BFDA-48E1-A217-BF093F92FBAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7223FD53-4BB2-4AC5-910D-9613E0CA8CDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5B46F34-0305-4BD4-B003-9168F005E721}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1582C716-ED21-4C1A-8284-CDC4B131887A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21DDA673-649E-406F-A223-BA6448F81043}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C7C0EC80-96A6-4697-AE11-ECD662E9406C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23F9F102-D160-45CD-8A21-9862C54A28B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B49D15BA-014C-495B-8445-98B67AEB42AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D925179-6F74-4DF4-96C2-8211D98E8E62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36E5C0D6-529C-4DD0-9E29-3B81D2694346}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D87BB84-F2D0-4974-97BC-B8D6D5ACE78E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{778FC8CD-5CCC-4F8B-9182-C51447FA590D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A84D9924-E6C1-4628-9B1D-4148C36137C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A0CFCC4-AD3E-49AD-95DC-88DB788D0DF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{628A64C2-5161-4405-885D-B40C17B97E28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FBF16F45-2B00-4E31-AFEC-92545CD94D8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7AA04D27-D194-4038-AF45-EE3D33418678}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B961405-3608-46A2-8562-890D74CE7FC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9145,7 +9145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE63356-6A4F-4EFF-8BC6-C9CB82ACA7BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78EEF73-747F-48F2-B735-71FFEFD5A9FB}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10428,17 +10428,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B5A9079-D74D-4A41-B680-104BBAE2AFF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D5D804B-64B6-44A5-B869-87EA999A8DAE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7E72633-2D1F-48CA-8666-E5D30724AFBF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01B67652-C495-452B-B6CD-3F2C155E71BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E193B3F-2B43-4704-9392-1FF84D6C5619}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA25A45B-53CC-4A16-A730-84A3A76DD76E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C1B6CE9-1F54-40E0-A5AB-95CDAF3D1241}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CA02214-0110-455C-B65A-40608A34819D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{184EF2D9-D122-42B2-9053-F4C68F3344C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3080441B-CDDD-48E6-A1DE-C4197E8BA668}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{024997F2-8F2C-4575-906D-F4325AAA64C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29453512-CAEE-4E1C-88F5-42087F8F6447}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CD46C96-C15F-48F2-8E65-676DFFB37B08}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56EEF823-2F67-490C-96B2-E305D981A83E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80F38609-36E6-4347-B22C-D5610F8F1562}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{873A4010-367D-4A7F-A898-4755437BFE2D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F429DD24-5C1E-43A8-8F11-28FB8B77AD4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5B17CF5-0AA4-44DC-988E-28B417AE7232}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F81A1457-713F-4F0F-BAEA-DDB217EC4513}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E1D44F69-23F5-43E4-AEBB-CC5E5EC22ADF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D7C49730-8724-42DC-BA0A-A64A28B30120}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0E19803-7BC4-41E9-B003-E17265283BCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A849A-FE53-46AC-9184-01F73826D781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA84B1A0-527F-44D8-9D71-D0B281490D1F}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11730,17 +11730,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31CD6329-457B-46AD-9B7E-13E289EA177A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBE54770-4519-4857-96EA-B96A492B7C9C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5AEA31DA-6107-4DFE-8B7E-21E874C40212}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{576B4714-827F-4DAB-A7B8-0F862F645599}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99E15238-3125-44D1-B5D2-7A923A619422}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EA66918-8899-46D4-9606-571A7623AF5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBB2FCF4-DB83-480B-A5A7-9CC81A62C868}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCB660CA-5AAF-4523-A0A2-708B41F887F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FC3419A3-E421-4E85-9816-22456DC6AFC6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{534AD2BB-3755-436B-BFA7-966C1DB2A831}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{378D5F34-7926-4D87-8B2C-369B571EFCFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DC47700-943C-4F95-957C-AAECF8EE876F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1ABCBC0-0232-4C33-B638-F64D8D726F8C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BDCE350-1FC7-40F7-B8C3-8CB55DD26B40}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1ACC8464-42C4-4E59-AABE-B76F41CC7147}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8665E7A1-F5F8-48E6-9273-D9D754969156}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BA80DC3-E8B9-4335-A487-977EFF458322}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{785BB624-5F7C-4003-BDED-C2E522F02C24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BD64905-0676-4614-96AF-23401C00A6F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DCE4133C-7757-4093-AF9D-E51437880B0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{969E79B7-AE6E-4D13-90B4-ADFDB36DE69E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A135E8EB-6095-4085-9028-A1ED874FB890}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11753,7 +11753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C4DC9D-ABD4-4F27-BAFE-C70F51ABE567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B9B67C-4F24-4015-87C7-650629613CF6}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13032,17 +13032,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{835EE29F-B0CD-4F37-AAAC-3C2286FAA49F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00EB596B-96EB-4C70-9127-D325815ACDF2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC1753A2-70A9-4243-A48A-47593A305D94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AF88591-32E4-45E4-B857-FFC79DF4CF6E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{348B5158-2DCD-4CE2-8D86-8D41D44B9121}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8A4C586-FAF6-4188-A26E-680D2EA8009C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FFD24B3-CCE2-414A-BB26-3CDB5DEB37B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E662B884-80C2-4E8C-BEFB-9E8718DA5011}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FA81E83E-52D3-4A21-B608-694401BFA005}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7143D95E-B5AE-4712-A69C-1C49A09C3830}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2289533A-1BD4-4124-9867-050F449BF6C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ADD1F24-0F94-4078-AE1D-5DFC42A450BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D1871AB-546C-4F14-9A85-2FC514EBE130}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FE5D51C-A70F-4AD1-A914-456986EDE8C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC5DFC6A-5C89-4040-A696-833311626D36}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E18A7E8-17C0-4E8C-82C5-2D4D5AB94CF6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0242331E-69D9-4FC9-BF55-E32B8D00DE3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19FF50A7-CD99-4C6A-BA9D-27B384A23F7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CD606F0-3E2D-4817-90FA-F3BF73E1F2BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{70C028F7-BDAF-4984-A950-BBA67AED5316}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F3832B9-51D9-40C6-A58F-9DE0DFFC5C64}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBA89A71-93AA-4C5D-9E03-1D4475CBA0AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13055,7 +13055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C720F1B-C7D2-466F-B898-D94EDE8D5FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53F93A7-F3AA-40AD-BCDE-145FABCCF631}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14334,17 +14334,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{817FB3EB-98EE-42D9-927B-462C2E1146BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8EBEF97-98C3-4962-A4A0-DEB934077AE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52747F94-0704-4ACB-A2EA-A61521D697DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BB6A000-5F15-4847-9A86-917B9567B1A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBDA8F5F-8192-47D8-B4E3-CF287C66C984}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D92780E-E454-46E6-BAE3-5E2FC5F1C144}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EA72ACB-4B76-4B9B-948F-6A03B7C8AE9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A62670EF-CA7B-42A4-8830-3ECA16268025}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{71C21F46-944D-47B9-9DBD-23AEC7B83AAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C1A5B4B-4336-4E0C-A6DF-2B21338EE0C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D9B2E7F-924A-4208-9A41-15DF8F9D62C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44960B75-2FE7-4EDE-9B6D-E81879024381}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBED47CC-AE4C-4C80-BAB4-CEAD29B0E8EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFABB5D9-F437-460D-B070-28F104D0B20B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81D6A930-FA8D-453C-9554-D02CEF063460}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37A73E50-0215-4328-BB00-B2004FE1D112}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DB98DFA-59B4-4A07-934B-CF05A6D0C9A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2941D398-7ADB-482B-9374-9DCAACE86F39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49BC0C3F-AC92-43F7-9634-4614B4DEEB25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2AB25647-035D-4135-AE97-224051F0CDCA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{10723968-AED9-4DE6-9457-03248EF71531}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81873496-7E7B-418A-8A1A-521A6DF5261F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14357,7 +14357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD687C9D-680C-4767-BE1F-E8AF37638550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A32F7-55C2-45D4-9C1C-41C54307B8FC}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15632,17 +15632,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1A6620F-9403-4E1C-92FF-C04993FEDEEF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD5D8D82-4548-4BDC-877E-C2004D001697}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6674D750-224A-434D-AEF1-89795779D412}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB571073-E1DD-4844-9B09-3C322AC8085A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E19DF448-DAB7-47D7-914A-6C8261E62519}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{832796B7-79B3-4CED-BA81-7F50140BAAB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D0EE4C2-EE67-4DF5-A3B3-437EACA171F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25EEA8A8-B365-4799-97CE-D03D6B99CDE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DA884F6F-D5B1-400C-9FE0-A4057A1ED460}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FAC86461-E016-47FB-A0C0-6007D1C086E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA0B6209-0AAE-478D-937E-9C62E77996E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD253D02-6FC6-433B-A724-0D52C0C1454E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EF2E7E5-8A45-4039-84C4-112384F27C10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2EBC7759-A4F1-404A-9DF0-5B339754667E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBA8EA89-2180-4B69-A9E7-1D19C7E3BA0D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC09B25B-03F2-4E78-A652-0513C0FCEC09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF49EB0A-7AF4-432E-BBA9-4B843C429D35}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2E53E58-381C-4722-A658-956E4E332515}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B45F99F-E59A-4F1E-A557-2EC6320365AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0F0B8CE-A472-474A-86A1-B465B7D8389F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01E20FFF-F674-424A-BA33-11960206F255}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AF70B0D-6BDD-4754-9BEC-82EFD55C0C16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15655,7 +15655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B4179-3426-4972-B27C-4333E7B77018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0452353-6EE6-4EEB-9B7C-459B4060D8A4}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16928,17 +16928,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9523E956-83EF-42F4-B659-407B649C8ED9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3ED6DCC-F8BA-46F2-BD91-0EB890276E40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7991DE93-4A19-42E2-AE61-8E0171856EDA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8735206-0665-41F7-B373-DDC56D767209}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{731B18A6-AB19-421C-8967-1DA0F68E8139}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{598DDA9C-8086-491B-9714-A95740F16967}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96205D16-6D6E-4348-BE9E-DCC3202900CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F6BB466-3293-4738-B182-67CD9AF6E0ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{658D8B9A-4A75-4012-8E11-A343320D61FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09D50329-ED19-4176-875F-0DD8F3F134D5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{295DE0C5-5356-4602-B320-57102115D094}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A55A8ECD-B29A-430B-A551-55EC70869646}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48266024-24C3-430C-89C0-2972F687DAAC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F96E6E8B-3835-4F4A-967E-B356B912DE8D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B27CC7B-ED5D-4710-B3BD-C212D946D067}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D62A9BC-3C65-486F-8B19-C12822D26538}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D55B27A-F12E-49A8-A617-20F41C07E91C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86D7EF00-19E3-4E9B-B9C1-604A8152A548}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC8312E5-F4C0-4E40-BB0D-A33D826A2C05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BD5E72E9-2D51-42DA-ADF9-B1EF0C24A1A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C0375982-90C5-4BE2-917B-53348D56E8A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4FD6084-7D42-4040-85CA-58C5EC893592}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
